--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>348341.3635857919</v>
+        <v>347663.1822782593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183199</v>
+        <v>311885.1970183196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.93825431390912</v>
+        <v>33.06238140451856</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428244</v>
+        <v>28.20762267428245</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407753</v>
+        <v>0.4269790130903788</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319845</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>20.73635203332431</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394768</v>
+        <v>122.711166374057</v>
       </c>
       <c r="V12" t="n">
         <v>46.43735102801261</v>
@@ -1512,10 +1512,10 @@
         <v>72.49301368962196</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208097</v>
+        <v>55.81471793024016</v>
       </c>
       <c r="Y12" t="n">
-        <v>89.64511192170552</v>
+        <v>29.17271624663599</v>
       </c>
     </row>
     <row r="13">
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>67.20002703306952</v>
+        <v>28.63460168737292</v>
       </c>
       <c r="G14" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I14" t="n">
         <v>46.38701225037788</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451855</v>
+        <v>33.06238140451856</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428244</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319845</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491226</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332431</v>
+        <v>122.711166374057</v>
       </c>
       <c r="U15" t="n">
-        <v>103.4885198490172</v>
+        <v>43.01612417394768</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801261</v>
+        <v>122.711166374057</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962196</v>
+        <v>122.711166374057</v>
       </c>
       <c r="X15" t="n">
         <v>23.10134455208097</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663599</v>
+        <v>41.96652661624065</v>
       </c>
     </row>
     <row r="16">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258606</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427345</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653696</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.9429845537779</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>122.7111663740568</v>
+        <v>101.9429845537781</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="X18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258606</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427345</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.9429845537779</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>6.141010788491226</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>101.9429845537781</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258606</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427345</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653696</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="E24" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>108.0839953422693</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1666563115507</v>
+        <v>161.1666563115508</v>
       </c>
       <c r="C26" t="n">
         <v>137.2849133148962</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148491</v>
+        <v>27.67799807148494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562558</v>
+        <v>14.35336722562561</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389472</v>
+        <v>9.498608495389501</v>
       </c>
       <c r="U26" t="n">
-        <v>37.22910417518457</v>
+        <v>37.2291041751846</v>
       </c>
       <c r="V26" t="n">
         <v>107.9591995428694</v>
@@ -2618,7 +2618,7 @@
         <v>124.9758797594843</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8621302284235</v>
+        <v>146.8621302284236</v>
       </c>
       <c r="Y26" t="n">
         <v>169.3649833521673</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431338</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505471</v>
+        <v>24.30710999505474</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911967</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78399951072899</v>
+        <v>53.78399951072902</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503966</v>
+        <v>22.43408406503969</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631826</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380148</v>
       </c>
       <c r="V28" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816733</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305275</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959926</v>
+        <v>8.998871341959955</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885816</v>
+        <v>4.220688747885845</v>
       </c>
     </row>
     <row r="29">
@@ -2798,10 +2798,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953536</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737309</v>
       </c>
       <c r="G29" t="n">
         <v>205.9069232565836</v>
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148489</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35336722562555</v>
+        <v>14.35336722562559</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389444</v>
+        <v>9.498608495389476</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518455</v>
+        <v>37.22910417518457</v>
       </c>
       <c r="V29" t="n">
         <v>107.9591995428694</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02733785443131</v>
+        <v>2.027337854431338</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276940613373</v>
+        <v>107.1027324754551</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911961</v>
+        <v>27.72833684911964</v>
       </c>
       <c r="W30" t="n">
-        <v>113.5211347837259</v>
+        <v>53.78399951072899</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774299</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503963</v>
+        <v>22.43408406503966</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631821</v>
+        <v>10.82053263631824</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380142</v>
+        <v>75.73571194380145</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816727</v>
+        <v>32.1884311181673</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305269</v>
+        <v>77.39012302305272</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959898</v>
+        <v>8.998871341959926</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885788</v>
+        <v>4.220688747885816</v>
       </c>
     </row>
     <row r="32">
@@ -3035,10 +3035,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953536</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737309</v>
       </c>
       <c r="G32" t="n">
         <v>205.9069232565836</v>
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148488</v>
+        <v>27.67799807148491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562555</v>
+        <v>14.35336722562558</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389444</v>
+        <v>9.498608495389472</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518455</v>
+        <v>37.22910417518457</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428694</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>210.5033709816753</v>
+        <v>2.027337854431338</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505468</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911964</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072899</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187974</v>
+        <v>4.392330373188003</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774299</v>
+        <v>40.18953708902418</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503963</v>
+        <v>22.43408406503966</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631821</v>
+        <v>10.82053263631824</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380142</v>
+        <v>75.73571194380145</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816727</v>
+        <v>32.1884311181673</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305269</v>
+        <v>77.39012302305272</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959898</v>
+        <v>8.998871341959926</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885788</v>
+        <v>4.220688747885816</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888891</v>
+        <v>125.776029588889</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922345</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328301</v>
+        <v>89.46094885328299</v>
       </c>
       <c r="E35" t="n">
         <v>123.1677012726919</v>
@@ -3281,7 +3281,7 @@
         <v>170.5162965339219</v>
       </c>
       <c r="H35" t="n">
-        <v>98.60095833618544</v>
+        <v>98.60095833618541</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522909</v>
+        <v>1.838477452522881</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020775</v>
+        <v>72.56857282020772</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682262</v>
+        <v>89.58525303682259</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057619</v>
+        <v>111.4715035057618</v>
       </c>
       <c r="Y35" t="n">
         <v>133.9743566295056</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,16 +3351,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>118.1999858809914</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>114.4378293409037</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.39337278806732</v>
+        <v>18.3933727880673</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113978</v>
+        <v>40.34508522113975</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039106</v>
+        <v>41.99949630039103</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888891</v>
+        <v>125.776029588889</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922345</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328301</v>
+        <v>89.46094885328299</v>
       </c>
       <c r="E38" t="n">
         <v>123.1677012726919</v>
@@ -3518,7 +3518,7 @@
         <v>170.5162965339219</v>
       </c>
       <c r="H38" t="n">
-        <v>98.60095833618544</v>
+        <v>98.60095833618541</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522909</v>
+        <v>1.838477452522881</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020775</v>
+        <v>72.56857282020772</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682262</v>
+        <v>89.58525303682259</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057619</v>
+        <v>111.4715035057618</v>
       </c>
       <c r="Y38" t="n">
         <v>133.9743566295056</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>57.31852573634684</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493538</v>
+        <v>146.2993200223374</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>18.39337278806732</v>
+        <v>18.3933727880673</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113978</v>
+        <v>40.34508522113975</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039106</v>
+        <v>41.99949630039103</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.1502412292409</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0.05033877763474948</v>
       </c>
       <c r="W42" t="n">
-        <v>26.1060014392441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>53.52220013252329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.4886582400658</v>
+        <v>133.4886582400659</v>
       </c>
       <c r="C44" t="n">
-        <v>109.6069152434113</v>
+        <v>109.6069152434114</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17357750445979</v>
+        <v>97.17357750445981</v>
       </c>
       <c r="E44" t="n">
         <v>130.8803299238687</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699667</v>
+        <v>9.551106103699695</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138452</v>
+        <v>80.28120147138455</v>
       </c>
       <c r="W44" t="n">
         <v>97.29788168799899</v>
       </c>
       <c r="X44" t="n">
-        <v>119.1841321569386</v>
+        <v>119.1841321569387</v>
       </c>
       <c r="Y44" t="n">
         <v>141.6869852806824</v>
@@ -4056,13 +4056,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763474948</v>
+        <v>0.0503387776347779</v>
       </c>
       <c r="W45" t="n">
-        <v>26.1060014392441</v>
+        <v>139.5219841612779</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.08704928452134</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231655</v>
+        <v>48.05771387231658</v>
       </c>
       <c r="V46" t="n">
-        <v>4.510433046682408</v>
+        <v>4.510433046682436</v>
       </c>
       <c r="W46" t="n">
-        <v>49.71212495156783</v>
+        <v>49.71212495156786</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.7182395201403</v>
+        <v>304.5738074498154</v>
       </c>
       <c r="C11" t="n">
-        <v>257.7182395201403</v>
+        <v>304.5738074498154</v>
       </c>
       <c r="D11" t="n">
-        <v>257.7182395201403</v>
+        <v>304.5738074498154</v>
       </c>
       <c r="E11" t="n">
-        <v>257.7182395201403</v>
+        <v>304.5738074498154</v>
       </c>
       <c r="F11" t="n">
-        <v>133.7675664150324</v>
+        <v>304.5738074498154</v>
       </c>
       <c r="G11" t="n">
-        <v>9.816893309924545</v>
+        <v>180.6231343447073</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924545</v>
+        <v>56.6724612395992</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J11" t="n">
         <v>126.9687252395235</v>
       </c>
       <c r="K11" t="n">
-        <v>126.9687252395235</v>
+        <v>141.934822585576</v>
       </c>
       <c r="L11" t="n">
-        <v>175.3558544907352</v>
+        <v>190.3219518367877</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0718186688984</v>
+        <v>273.0379160149508</v>
       </c>
       <c r="N11" t="n">
-        <v>335.2837776073479</v>
+        <v>350.2498749534004</v>
       </c>
       <c r="O11" t="n">
-        <v>371.2834822117431</v>
+        <v>386.2495795577955</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577948</v>
+        <v>386.2495795577955</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="S11" t="n">
-        <v>466.6646106336927</v>
+        <v>457.4483206431788</v>
       </c>
       <c r="T11" t="n">
-        <v>438.1720624778518</v>
+        <v>428.955772487338</v>
       </c>
       <c r="U11" t="n">
-        <v>381.6689126252483</v>
+        <v>428.5244805549235</v>
       </c>
       <c r="V11" t="n">
-        <v>381.6689126252483</v>
+        <v>428.5244805549235</v>
       </c>
       <c r="W11" t="n">
-        <v>257.7182395201403</v>
+        <v>428.5244805549235</v>
       </c>
       <c r="X11" t="n">
-        <v>257.7182395201403</v>
+        <v>304.5738074498154</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.7182395201403</v>
+        <v>304.5738074498154</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.27751947477147</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="C12" t="n">
-        <v>62.27751947477147</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="D12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="E12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="F12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="G12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="H12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I12" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="L12" t="n">
-        <v>128.376484278129</v>
+        <v>41.68857104703267</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1726257573487</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="N12" t="n">
-        <v>284.656680467665</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779819</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957317</v>
       </c>
       <c r="R12" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957317</v>
       </c>
       <c r="S12" t="n">
-        <v>360.6909511906231</v>
+        <v>484.6416242957317</v>
       </c>
       <c r="T12" t="n">
-        <v>339.745141055952</v>
+        <v>463.6958141610606</v>
       </c>
       <c r="U12" t="n">
-        <v>296.294510577217</v>
+        <v>339.7451410559526</v>
       </c>
       <c r="V12" t="n">
-        <v>249.3880953974063</v>
+        <v>292.8387258761418</v>
       </c>
       <c r="W12" t="n">
-        <v>176.1628290442528</v>
+        <v>219.6134595229883</v>
       </c>
       <c r="X12" t="n">
-        <v>152.8281375775043</v>
+        <v>163.2349565631498</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.27751947477147</v>
+        <v>133.7675664150326</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924545</v>
+        <v>26.24559604012188</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924545</v>
+        <v>53.72244106638499</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924545</v>
+        <v>102.2610715066971</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924545</v>
+        <v>154.2711458951101</v>
       </c>
       <c r="F13" t="n">
-        <v>9.816893309924545</v>
+        <v>209.0029866873637</v>
       </c>
       <c r="G13" t="n">
-        <v>9.816893309924545</v>
+        <v>234.2634100944388</v>
       </c>
       <c r="H13" t="n">
-        <v>9.816893309924545</v>
+        <v>245.0384564805943</v>
       </c>
       <c r="I13" t="n">
-        <v>9.816893309924545</v>
+        <v>245.0384564805943</v>
       </c>
       <c r="J13" t="n">
-        <v>9.816893309924545</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="K13" t="n">
-        <v>9.816893309924545</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="L13" t="n">
-        <v>9.816893309924545</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="M13" t="n">
-        <v>20.87464495852612</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="N13" t="n">
-        <v>142.3586996688423</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="O13" t="n">
-        <v>263.8427543791586</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="P13" t="n">
-        <v>385.3268090894748</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="Q13" t="n">
         <v>385.3268090894748</v>
@@ -5236,13 +5236,13 @@
         <v>158.0358081074775</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995655</v>
+        <v>60.96597254995657</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757989</v>
+        <v>32.9782093975799</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="C14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="D14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="E14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="F14" t="n">
-        <v>304.573807449815</v>
+        <v>304.5738074498153</v>
       </c>
       <c r="G14" t="n">
-        <v>180.6231343447071</v>
+        <v>180.6231343447072</v>
       </c>
       <c r="H14" t="n">
         <v>56.67246123959917</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J14" t="n">
         <v>126.9687252395235</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9687252395235</v>
+        <v>141.934822585576</v>
       </c>
       <c r="L14" t="n">
-        <v>175.3558544907352</v>
+        <v>190.3219518367877</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0718186688984</v>
+        <v>273.0379160149508</v>
       </c>
       <c r="N14" t="n">
-        <v>335.2837776073479</v>
+        <v>350.2498749534004</v>
       </c>
       <c r="O14" t="n">
-        <v>371.2834822117431</v>
+        <v>386.2495795577955</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2495795577948</v>
+        <v>386.2495795577955</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="S14" t="n">
-        <v>457.4483206431781</v>
+        <v>457.4483206431789</v>
       </c>
       <c r="T14" t="n">
-        <v>428.9557724873373</v>
+        <v>457.4483206431789</v>
       </c>
       <c r="U14" t="n">
-        <v>372.4526226347338</v>
+        <v>457.4483206431789</v>
       </c>
       <c r="V14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="W14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="X14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.4526226347338</v>
+        <v>333.4976475380708</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="C15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="D15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="E15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="F15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="G15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="H15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="K15" t="n">
-        <v>44.61303478914425</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1726257573487</v>
+        <v>41.68857104703267</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1726257573487</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="N15" t="n">
-        <v>284.656680467665</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779819</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.641624295731</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="R15" t="n">
-        <v>484.641624295731</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="S15" t="n">
-        <v>360.6909511906231</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="T15" t="n">
-        <v>339.745141055952</v>
+        <v>366.8939923911198</v>
       </c>
       <c r="U15" t="n">
-        <v>235.2112826226013</v>
+        <v>323.4433619123848</v>
       </c>
       <c r="V15" t="n">
-        <v>188.3048674427906</v>
+        <v>199.4926888072767</v>
       </c>
       <c r="W15" t="n">
-        <v>115.0796010896371</v>
+        <v>75.54201570216863</v>
       </c>
       <c r="X15" t="n">
-        <v>91.74490962288863</v>
+        <v>52.20732423542017</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.27751947477147</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924545</v>
+        <v>26.24559604012188</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924545</v>
+        <v>53.72244106638499</v>
       </c>
       <c r="D16" t="n">
-        <v>58.35552375023668</v>
+        <v>102.2610715066971</v>
       </c>
       <c r="E16" t="n">
-        <v>110.3655981386497</v>
+        <v>102.2610715066971</v>
       </c>
       <c r="F16" t="n">
-        <v>110.3655981386497</v>
+        <v>102.2610715066971</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3655981386497</v>
+        <v>127.5214949137722</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3655981386497</v>
+        <v>155.6669062943373</v>
       </c>
       <c r="I16" t="n">
-        <v>110.3655981386497</v>
+        <v>155.6669062943373</v>
       </c>
       <c r="J16" t="n">
-        <v>110.3655981386497</v>
+        <v>229.2340122041029</v>
       </c>
       <c r="K16" t="n">
-        <v>231.8496528489659</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8496528489659</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="M16" t="n">
-        <v>231.8496528489659</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="N16" t="n">
-        <v>263.8427543791586</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="O16" t="n">
-        <v>263.8427543791586</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="P16" t="n">
-        <v>385.3268090894748</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="Q16" t="n">
         <v>385.3268090894748</v>
@@ -5473,13 +5473,13 @@
         <v>158.0358081074775</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995655</v>
+        <v>60.96597254995657</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757989</v>
+        <v>32.9782093975799</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154751</v>
+        <v>317.4102657154748</v>
       </c>
       <c r="C17" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203029</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111682</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F17" t="n">
         <v>135.5209245733695</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924545</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="J17" t="n">
-        <v>131.3009480202408</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="K17" t="n">
-        <v>131.3009480202408</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="L17" t="n">
-        <v>179.6880772714525</v>
+        <v>137.4513055658532</v>
       </c>
       <c r="M17" t="n">
-        <v>262.4040414496156</v>
+        <v>220.1672697440164</v>
       </c>
       <c r="N17" t="n">
-        <v>339.6160003880652</v>
+        <v>297.3792286824659</v>
       </c>
       <c r="O17" t="n">
-        <v>375.6157049924603</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="P17" t="n">
-        <v>375.6157049924603</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="Q17" t="n">
-        <v>375.6157049924603</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="R17" t="n">
-        <v>375.6157049924603</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="S17" t="n">
-        <v>375.6157049924603</v>
+        <v>425.8176008289788</v>
       </c>
       <c r="T17" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="V17" t="n">
         <v>490.6088666471774</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227591</v>
+        <v>473.184501922759</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923414</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914758</v>
+        <v>371.3909703914754</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="C18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="D18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="E18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="F18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="G18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="H18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="K18" t="n">
-        <v>9.816893309924545</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="L18" t="n">
-        <v>128.376484278129</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M18" t="n">
-        <v>163.1726257573487</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="N18" t="n">
-        <v>284.656680467665</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779819</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957317</v>
       </c>
       <c r="R18" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957317</v>
       </c>
       <c r="S18" t="n">
-        <v>360.6909511906231</v>
+        <v>381.6689126252488</v>
       </c>
       <c r="T18" t="n">
-        <v>360.6909511906231</v>
+        <v>381.6689126252488</v>
       </c>
       <c r="U18" t="n">
-        <v>360.6909511906231</v>
+        <v>257.7182395201407</v>
       </c>
       <c r="V18" t="n">
-        <v>360.6909511906231</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="W18" t="n">
-        <v>360.6909511906231</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="X18" t="n">
-        <v>236.7402780855152</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.7896049804073</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154751</v>
+        <v>317.4102657154748</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633678</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203026</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111679</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733691</v>
+        <v>135.5209245733695</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400227</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I20" t="n">
-        <v>79.49334187690181</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="J20" t="n">
-        <v>79.49334187690181</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="K20" t="n">
-        <v>79.49334187690181</v>
+        <v>89.06417631464149</v>
       </c>
       <c r="L20" t="n">
-        <v>127.8804711281135</v>
+        <v>137.4513055658532</v>
       </c>
       <c r="M20" t="n">
-        <v>210.5964353062767</v>
+        <v>220.1672697440164</v>
       </c>
       <c r="N20" t="n">
-        <v>287.8083942447262</v>
+        <v>297.3792286824659</v>
       </c>
       <c r="O20" t="n">
-        <v>323.8080988491214</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="P20" t="n">
-        <v>323.8080988491214</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="Q20" t="n">
-        <v>323.8080988491214</v>
+        <v>333.3789332868611</v>
       </c>
       <c r="R20" t="n">
-        <v>323.8080988491214</v>
+        <v>393.5997868111765</v>
       </c>
       <c r="S20" t="n">
-        <v>323.8080988491214</v>
+        <v>393.5997868111765</v>
       </c>
       <c r="T20" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="V20" t="n">
         <v>490.6088666471774</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227591</v>
+        <v>473.184501922759</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923414</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914758</v>
+        <v>371.3909703914754</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>381.6689126252483</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="C21" t="n">
-        <v>257.7182395201403</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="D21" t="n">
-        <v>257.7182395201403</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="E21" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="F21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="G21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924545</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="L21" t="n">
-        <v>128.376484278129</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="M21" t="n">
-        <v>249.8605389884453</v>
+        <v>163.1726257573491</v>
       </c>
       <c r="N21" t="n">
-        <v>284.656680467665</v>
+        <v>284.6566804676655</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779819</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962279</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957317</v>
       </c>
       <c r="R21" t="n">
-        <v>484.641624295731</v>
+        <v>360.6909511906236</v>
       </c>
       <c r="S21" t="n">
-        <v>484.641624295731</v>
+        <v>236.7402780855155</v>
       </c>
       <c r="T21" t="n">
-        <v>484.641624295731</v>
+        <v>112.7896049804074</v>
       </c>
       <c r="U21" t="n">
-        <v>484.641624295731</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="V21" t="n">
-        <v>484.641624295731</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="W21" t="n">
-        <v>484.641624295731</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="X21" t="n">
-        <v>484.641624295731</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="Y21" t="n">
-        <v>484.641624295731</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924557</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154752</v>
+        <v>317.4102657154748</v>
       </c>
       <c r="C23" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203029</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111681</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733694</v>
+        <v>135.520924573369</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I23" t="n">
-        <v>89.06417631464154</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J23" t="n">
-        <v>210.5482310249578</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K23" t="n">
-        <v>210.5482310249578</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L23" t="n">
-        <v>258.9353602761695</v>
+        <v>58.20402256113625</v>
       </c>
       <c r="M23" t="n">
-        <v>341.6513244543327</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N23" t="n">
-        <v>418.8632833927822</v>
+        <v>218.131945677749</v>
       </c>
       <c r="O23" t="n">
-        <v>454.8629879971774</v>
+        <v>254.1316502821442</v>
       </c>
       <c r="P23" t="n">
-        <v>454.8629879971774</v>
+        <v>254.1316502821442</v>
       </c>
       <c r="Q23" t="n">
-        <v>454.8629879971774</v>
+        <v>254.1316502821442</v>
       </c>
       <c r="R23" t="n">
-        <v>454.8629879971774</v>
+        <v>323.808098849122</v>
       </c>
       <c r="S23" t="n">
-        <v>454.8629879971774</v>
+        <v>323.808098849122</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962272</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="V23" t="n">
         <v>490.6088666471774</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227591</v>
+        <v>473.184501922759</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923414</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914758</v>
+        <v>371.3909703914754</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>490.8446654962272</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="C24" t="n">
-        <v>381.6689126252483</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="D24" t="n">
-        <v>257.7182395201403</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E24" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L24" t="n">
         <v>128.376484278129</v>
       </c>
       <c r="M24" t="n">
-        <v>163.1726257573487</v>
+        <v>249.8605389884454</v>
       </c>
       <c r="N24" t="n">
-        <v>284.656680467665</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="O24" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="S24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="T24" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="U24" t="n">
-        <v>490.8446654962272</v>
+        <v>366.8939923911196</v>
       </c>
       <c r="V24" t="n">
-        <v>490.8446654962272</v>
+        <v>366.8939923911196</v>
       </c>
       <c r="W24" t="n">
-        <v>490.8446654962272</v>
+        <v>366.8939923911196</v>
       </c>
       <c r="X24" t="n">
-        <v>490.8446654962272</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="Y24" t="n">
-        <v>490.8446654962272</v>
+        <v>133.7675664150326</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686419</v>
+        <v>885.8369123686421</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666776</v>
+        <v>759.7242097666775</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986437</v>
+        <v>599.5642824986436</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019458</v>
+        <v>407.3636102019457</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336796</v>
+        <v>199.3768190336793</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070288</v>
+        <v>64.03178362070243</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778252</v>
+        <v>171.747965777825</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381361</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419189</v>
+        <v>929.9084159419191</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O26" t="n">
         <v>1464.702835936003</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.188566519003</v>
+        <v>1785.188566519004</v>
       </c>
       <c r="R26" t="n">
         <v>1803.710490556108</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.212139823152</v>
+        <v>1789.212139823153</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.617585787405</v>
+        <v>1779.617585787406</v>
       </c>
       <c r="U26" t="n">
         <v>1742.012430054896</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268953</v>
       </c>
       <c r="L27" t="n">
         <v>193.509405900894</v>
@@ -6333,10 +6333,10 @@
         <v>800.7408945687733</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541962</v>
+        <v>583.6217815175471</v>
       </c>
       <c r="U27" t="n">
-        <v>774.140442195555</v>
+        <v>559.0691451589059</v>
       </c>
       <c r="V27" t="n">
         <v>531.0607240991891</v>
@@ -6348,7 +6348,7 @@
         <v>257.2254574828258</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112215</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112215</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112215</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112215</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="G28" t="n">
-        <v>79.85655725530128</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="H28" t="n">
-        <v>83.63481693832921</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="I28" t="n">
-        <v>83.63481693832921</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="J28" t="n">
-        <v>83.63481693832921</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="K28" t="n">
-        <v>83.63481693832921</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="L28" t="n">
-        <v>83.63481693832921</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2039500901374</v>
+        <v>75.04272983029097</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901376</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901376</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901376</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901376</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901376</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153501</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695739</v>
+        <v>236.613428169574</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344209</v>
+        <v>160.112709034421</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483934</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096634</v>
+        <v>49.4273008109664</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868358</v>
+        <v>40.33753177868362</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979649</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686416</v>
+        <v>885.8369123686424</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666774</v>
+        <v>759.7242097666781</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986435</v>
+        <v>599.5642824986442</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019456</v>
+        <v>407.3636102019463</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336793</v>
+        <v>199.37681903368</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070284</v>
+        <v>64.0317836207029</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778258</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613048</v>
+        <v>377.2225660613054</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381353</v>
+        <v>636.4010735381369</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419183</v>
+        <v>929.9084159419198</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936004</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.188566519003</v>
+        <v>1785.188566519004</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.710490556107</v>
+        <v>1803.710490556108</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823152</v>
+        <v>1789.212139823153</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.617585787405</v>
+        <v>1779.617585787406</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054897</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546948</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.724471163629</v>
+        <v>1506.72447116363</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074314</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.303144314548</v>
+        <v>1187.303144314549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186.3155207750081</v>
+        <v>163.0241195554083</v>
       </c>
       <c r="C30" t="n">
-        <v>186.3155207750081</v>
+        <v>163.0241195554083</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3155207750081</v>
+        <v>163.0241195554083</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3155207750081</v>
+        <v>163.0241195554083</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3155207750081</v>
+        <v>163.0241195554083</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112215</v>
+        <v>163.0241195554083</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268955</v>
       </c>
       <c r="L30" t="n">
         <v>193.509405900894</v>
@@ -6570,22 +6570,22 @@
         <v>800.7408945687733</v>
       </c>
       <c r="T30" t="n">
-        <v>798.6930785541963</v>
+        <v>798.6930785541962</v>
       </c>
       <c r="U30" t="n">
-        <v>559.0691451589061</v>
+        <v>690.5085002961607</v>
       </c>
       <c r="V30" t="n">
-        <v>531.0607240991893</v>
+        <v>662.5000792364439</v>
       </c>
       <c r="W30" t="n">
-        <v>416.3929111863349</v>
+        <v>608.1728070033843</v>
       </c>
       <c r="X30" t="n">
-        <v>196.8849168030313</v>
+        <v>388.6648126200806</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.3155207750081</v>
+        <v>163.0241195554083</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F31" t="n">
-        <v>78.05655499266119</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G31" t="n">
-        <v>121.8389024368404</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H31" t="n">
-        <v>168.5062378545095</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I31" t="n">
-        <v>168.5062378545095</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J31" t="n">
-        <v>260.5952678013792</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K31" t="n">
-        <v>260.5952678013792</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="L31" t="n">
-        <v>260.5952678013792</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="M31" t="n">
-        <v>260.5952678013792</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="N31" t="n">
-        <v>260.5952678013792</v>
+        <v>231.2354300709688</v>
       </c>
       <c r="O31" t="n">
-        <v>260.5952678013792</v>
+        <v>231.2354300709688</v>
       </c>
       <c r="P31" t="n">
-        <v>260.5952678013792</v>
+        <v>231.2354300709688</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.5952678013792</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153497</v>
+        <v>247.5432591153499</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695738</v>
+        <v>236.6134281695739</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344208</v>
+        <v>160.1127090344209</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483932</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096627</v>
+        <v>49.42730081096635</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868355</v>
+        <v>40.3375317786836</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>599.5642824986439</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019461</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336799</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070298</v>
+        <v>64.03178362070284</v>
       </c>
       <c r="I32" t="n">
         <v>36.07420981112215</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778251</v>
       </c>
       <c r="K32" t="n">
-        <v>377.222566061304</v>
+        <v>377.2225660613047</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381354</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419184</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O32" t="n">
         <v>1464.702835936003</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.07420981112215</v>
+        <v>431.7012625103596</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07420981112215</v>
+        <v>431.7012625103596</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07420981112215</v>
+        <v>431.7012625103596</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07420981112215</v>
+        <v>431.7012625103596</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07420981112215</v>
+        <v>271.2735462276037</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07420981112215</v>
+        <v>271.2735462276037</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112215</v>
+        <v>144.3236364833176</v>
       </c>
       <c r="I33" t="n">
         <v>36.07420981112215</v>
@@ -6807,22 +6807,22 @@
         <v>800.7408945687733</v>
       </c>
       <c r="T33" t="n">
-        <v>588.1112269105155</v>
+        <v>798.6930785541962</v>
       </c>
       <c r="U33" t="n">
-        <v>563.5585905518744</v>
+        <v>559.0691451589059</v>
       </c>
       <c r="V33" t="n">
-        <v>320.4788724555086</v>
+        <v>531.0607240991891</v>
       </c>
       <c r="W33" t="n">
-        <v>51.08030318579988</v>
+        <v>476.7334518661295</v>
       </c>
       <c r="X33" t="n">
-        <v>46.64360583914537</v>
+        <v>472.2967545194749</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.07420981112215</v>
+        <v>431.7012625103596</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.02483657842353</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C34" t="n">
-        <v>71.02483657842353</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D34" t="n">
-        <v>71.02483657842353</v>
+        <v>103.1347642885383</v>
       </c>
       <c r="E34" t="n">
-        <v>141.5568350039406</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="F34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="G34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="H34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="I34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="J34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="K34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="L34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="M34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="N34" t="n">
-        <v>184.9607793539182</v>
+        <v>173.6667627140554</v>
       </c>
       <c r="O34" t="n">
-        <v>184.9607793539182</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="P34" t="n">
-        <v>184.9607793539182</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901372</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153497</v>
+        <v>247.5432591153499</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695738</v>
+        <v>236.6134281695739</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344208</v>
+        <v>160.1127090344209</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483932</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096627</v>
+        <v>49.42730081096633</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868355</v>
+        <v>40.33753177868358</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07420981112215</v>
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561324</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457948</v>
+        <v>669.3219062457943</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444988</v>
+        <v>578.9573114444983</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771333</v>
+        <v>454.5454919771328</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811033</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H35" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586259</v>
+        <v>33.8928188658626</v>
       </c>
       <c r="J35" t="n">
         <v>204.6032952880007</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1146160269153</v>
+        <v>332.1451684731298</v>
       </c>
       <c r="L35" t="n">
-        <v>626.3603964053973</v>
+        <v>626.3603964053964</v>
       </c>
       <c r="M35" t="n">
-        <v>709.0763605835605</v>
+        <v>709.0763605835596</v>
       </c>
       <c r="N35" t="n">
-        <v>786.2883195220101</v>
+        <v>786.2883195220091</v>
       </c>
       <c r="O35" t="n">
-        <v>822.2880241264052</v>
+        <v>822.2880241264043</v>
       </c>
       <c r="P35" t="n">
-        <v>1054.693465189304</v>
+        <v>1054.693465189303</v>
       </c>
       <c r="Q35" t="n">
-        <v>1212.847195620276</v>
+        <v>1212.847195620275</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112815</v>
+        <v>1266.405840112814</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1287.23272701488</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059879</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V35" t="n">
         <v>1237.707188420758</v>
@@ -6977,10 +6977,10 @@
         <v>1147.217033838109</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903645</v>
+        <v>899.2919225903637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>593.8089838995224</v>
+        <v>521.0283529015073</v>
       </c>
       <c r="C36" t="n">
-        <v>593.8089838995224</v>
+        <v>521.0283529015073</v>
       </c>
       <c r="D36" t="n">
-        <v>433.0288676605542</v>
+        <v>360.2482366625391</v>
       </c>
       <c r="E36" t="n">
-        <v>433.0288676605542</v>
+        <v>186.6850327839535</v>
       </c>
       <c r="F36" t="n">
-        <v>272.6011513777983</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="G36" t="n">
-        <v>153.2072262454837</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="H36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276498</v>
+        <v>65.13292162276497</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7038,28 +7038,28 @@
         <v>790.9240012588488</v>
       </c>
       <c r="R36" t="n">
-        <v>790.9240012588488</v>
+        <v>655.2012843449123</v>
       </c>
       <c r="S36" t="n">
-        <v>790.9240012588488</v>
+        <v>539.6075173338985</v>
       </c>
       <c r="T36" t="n">
-        <v>790.9240012588488</v>
+        <v>539.6075173338985</v>
       </c>
       <c r="U36" t="n">
-        <v>790.9240012588488</v>
+        <v>539.6075173338985</v>
       </c>
       <c r="V36" t="n">
-        <v>790.9240012588488</v>
+        <v>539.6075173338985</v>
       </c>
       <c r="W36" t="n">
-        <v>772.3448368264575</v>
+        <v>521.0283529015073</v>
       </c>
       <c r="X36" t="n">
-        <v>772.3448368264575</v>
+        <v>521.0283529015073</v>
       </c>
       <c r="Y36" t="n">
-        <v>772.3448368264575</v>
+        <v>521.0283529015073</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="C37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="D37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="E37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="F37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="G37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="H37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="K37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="L37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="M37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="N37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="O37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="P37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.2573165011976</v>
+        <v>64.78825872824773</v>
       </c>
       <c r="R37" t="n">
-        <v>69.11211744746566</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="S37" t="n">
-        <v>81.93909467851145</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="T37" t="n">
-        <v>106.2634878239915</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="U37" t="n">
-        <v>65.51087648950683</v>
+        <v>68.68105013795621</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795625</v>
+        <v>68.68105013795621</v>
       </c>
       <c r="W37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="X37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561323</v>
       </c>
       <c r="C38" t="n">
-        <v>669.3219062457948</v>
+        <v>669.3219062457944</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444988</v>
+        <v>578.9573114444984</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771333</v>
+        <v>454.5454919771329</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811033</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H38" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586259</v>
+        <v>33.8928188658626</v>
       </c>
       <c r="J38" t="n">
-        <v>95.24361889111381</v>
+        <v>204.6032952880007</v>
       </c>
       <c r="K38" t="n">
-        <v>335.7549396300284</v>
+        <v>204.6032952880007</v>
       </c>
       <c r="L38" t="n">
-        <v>384.1420688812402</v>
+        <v>252.9904245392124</v>
       </c>
       <c r="M38" t="n">
-        <v>709.0763605835605</v>
+        <v>335.7063887173755</v>
       </c>
       <c r="N38" t="n">
-        <v>786.2883195220101</v>
+        <v>658.7464463368799</v>
       </c>
       <c r="O38" t="n">
-        <v>822.2880241264052</v>
+        <v>822.2880241264043</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189304</v>
+        <v>1054.693465189303</v>
       </c>
       <c r="Q38" t="n">
-        <v>1212.847195620276</v>
+        <v>1212.847195620275</v>
       </c>
       <c r="R38" t="n">
-        <v>1266.405840112815</v>
+        <v>1266.405840112814</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014881</v>
+        <v>1287.23272701488</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059879</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420758</v>
+        <v>1237.707188420757</v>
       </c>
       <c r="W38" t="n">
-        <v>1147.217033838109</v>
+        <v>1147.217033838108</v>
       </c>
       <c r="X38" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.61955554946</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903645</v>
+        <v>899.2919225903636</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>578.925853645292</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="C39" t="n">
-        <v>521.0283529015073</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="D39" t="n">
-        <v>360.2482366625391</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="E39" t="n">
-        <v>186.6850327839535</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="F39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="G39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="H39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276498</v>
+        <v>65.13292162276497</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7275,28 +7275,28 @@
         <v>790.9240012588488</v>
       </c>
       <c r="R39" t="n">
-        <v>790.9240012588488</v>
+        <v>655.2012843449123</v>
       </c>
       <c r="S39" t="n">
-        <v>597.5050180776833</v>
+        <v>507.4241934132584</v>
       </c>
       <c r="T39" t="n">
-        <v>597.5050180776833</v>
+        <v>507.4241934132584</v>
       </c>
       <c r="U39" t="n">
-        <v>597.5050180776833</v>
+        <v>507.4241934132584</v>
       </c>
       <c r="V39" t="n">
-        <v>597.5050180776833</v>
+        <v>264.3444753168924</v>
       </c>
       <c r="W39" t="n">
-        <v>578.925853645292</v>
+        <v>245.7653108845012</v>
       </c>
       <c r="X39" t="n">
-        <v>578.925853645292</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Y39" t="n">
-        <v>578.925853645292</v>
+        <v>26.25731650119759</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="C40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="D40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="E40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="F40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="G40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="H40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="I40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="J40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="K40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="L40" t="n">
-        <v>81.93909467851145</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="M40" t="n">
-        <v>81.93909467851145</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="N40" t="n">
-        <v>81.93909467851145</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="O40" t="n">
-        <v>81.93909467851145</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="P40" t="n">
-        <v>81.93909467851145</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.93909467851145</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="R40" t="n">
-        <v>81.93909467851145</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="S40" t="n">
-        <v>81.93909467851145</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="T40" t="n">
-        <v>106.2634878239915</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="U40" t="n">
-        <v>65.51087648950683</v>
+        <v>68.68105013795621</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795625</v>
+        <v>68.68105013795621</v>
       </c>
       <c r="W40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="X40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119759</v>
       </c>
     </row>
     <row r="41">
@@ -7415,7 +7415,7 @@
         <v>424.1159948082887</v>
       </c>
       <c r="L41" t="n">
-        <v>472.5031240595005</v>
+        <v>710.6957203758902</v>
       </c>
       <c r="M41" t="n">
         <v>793.4116845540534</v>
@@ -7427,16 +7427,16 @@
         <v>1144.815944413288</v>
       </c>
       <c r="P41" t="n">
-        <v>1331.147996482691</v>
+        <v>1369.585883111522</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.147996482691</v>
+        <v>1369.585883111522</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.071138610565</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.262523147966</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.348513043912</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="C42" t="n">
-        <v>522.9362387768757</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="D42" t="n">
-        <v>362.1561225379074</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="E42" t="n">
-        <v>188.5929186593219</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="F42" t="n">
-        <v>28.165202376566</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="G42" t="n">
-        <v>28.165202376566</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="H42" t="n">
-        <v>28.165202376566</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="I42" t="n">
         <v>28.165202376566</v>
@@ -7515,25 +7515,25 @@
         <v>792.8318871342173</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8318871342173</v>
+        <v>622.9831586198325</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8318871342173</v>
+        <v>405.8640455686062</v>
       </c>
       <c r="U42" t="n">
-        <v>792.8318871342173</v>
+        <v>405.8640455686062</v>
       </c>
       <c r="V42" t="n">
-        <v>792.7810398840811</v>
+        <v>405.8131983184701</v>
       </c>
       <c r="W42" t="n">
-        <v>766.4113414606022</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="X42" t="n">
-        <v>766.4113414606022</v>
+        <v>136.4146290487614</v>
       </c>
       <c r="Y42" t="n">
-        <v>712.348513043912</v>
+        <v>136.4146290487614</v>
       </c>
     </row>
     <row r="43">
@@ -7549,46 +7549,46 @@
         <v>28.165202376566</v>
       </c>
       <c r="D43" t="n">
-        <v>28.165202376566</v>
+        <v>122.6269749447522</v>
       </c>
       <c r="E43" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="F43" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="G43" t="n">
-        <v>28.165202376566</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="H43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="I43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="J43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="K43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="L43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="M43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="N43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="O43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="P43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.46870792690342</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R43" t="n">
         <v>131.4786083064315</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.8965178780271</v>
+        <v>820.8965178780276</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766015</v>
+        <v>710.182462076602</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842179</v>
+        <v>612.0273332842182</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257647</v>
+        <v>479.8249798257651</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386475</v>
+        <v>315.5818813386479</v>
       </c>
       <c r="G44" t="n">
         <v>135.5526639799622</v>
@@ -7646,34 +7646,34 @@
         <v>28.165202376566</v>
       </c>
       <c r="J44" t="n">
-        <v>191.2401764340391</v>
+        <v>191.240176434039</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082887</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L44" t="n">
-        <v>521.7396056807528</v>
+        <v>472.5031240595004</v>
       </c>
       <c r="M44" t="n">
-        <v>604.455569858916</v>
+        <v>793.4116845540534</v>
       </c>
       <c r="N44" t="n">
-        <v>919.8601251137553</v>
+        <v>870.623643492503</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8598297181504</v>
+        <v>1144.815944413288</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.629768416385</v>
+        <v>1198.627364096719</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.147996482691</v>
+        <v>1349.145592163025</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.071138610565</v>
+        <v>1395.0687342909</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.262523147966</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="T44" t="n">
         <v>1408.2601188283</v>
@@ -7688,10 +7688,10 @@
         <v>1219.239725633267</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353531</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033462</v>
+        <v>955.7335464033466</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>518.0905902664739</v>
+        <v>28.165202376566</v>
       </c>
       <c r="C45" t="n">
-        <v>328.6783159994376</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D45" t="n">
-        <v>328.6783159994376</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1151121208521</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1151121208521</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G45" t="n">
-        <v>155.1151121208521</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H45" t="n">
         <v>28.165202376566</v>
@@ -7764,13 +7764,13 @@
         <v>792.7810398840811</v>
       </c>
       <c r="W45" t="n">
-        <v>766.4113414606022</v>
+        <v>651.8497427514772</v>
       </c>
       <c r="X45" t="n">
-        <v>766.4113414606022</v>
+        <v>432.3417483681735</v>
       </c>
       <c r="Y45" t="n">
-        <v>696.6264431934089</v>
+        <v>206.7010553035011</v>
       </c>
     </row>
     <row r="46">
@@ -7792,43 +7792,43 @@
         <v>28.165202376566</v>
       </c>
       <c r="F46" t="n">
-        <v>28.165202376566</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="G46" t="n">
-        <v>28.165202376566</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="H46" t="n">
-        <v>28.165202376566</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="I46" t="n">
-        <v>28.165202376566</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064315</v>
+        <v>128.8201852966936</v>
       </c>
       <c r="S46" t="n">
         <v>131.4786083064315</v>
@@ -7837,10 +7837,10 @@
         <v>131.4786083064315</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085917</v>
+        <v>82.93546298085923</v>
       </c>
       <c r="V46" t="n">
-        <v>78.3794700044123</v>
+        <v>78.37947000441233</v>
       </c>
       <c r="W46" t="n">
         <v>28.165202376566</v>
@@ -8772,16 +8772,16 @@
         <v>132.1051855825677</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>152.7409950383624</v>
       </c>
       <c r="M12" t="n">
-        <v>151.9668072660657</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510104</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>167.2528032383452</v>
+        <v>132.1051855825677</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>152.7409950383624</v>
       </c>
       <c r="M15" t="n">
-        <v>116.8191896102882</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510104</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O15" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.1051855825677</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>151.9668072660657</v>
+        <v>235.4096856385398</v>
       </c>
       <c r="N18" t="n">
-        <v>224.8661044510104</v>
+        <v>102.1549380769536</v>
       </c>
       <c r="O18" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.1051855825677</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M21" t="n">
-        <v>239.530355984345</v>
+        <v>232.4556818586287</v>
       </c>
       <c r="N21" t="n">
-        <v>137.3025557327311</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9723,13 +9723,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>151.9668072660657</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510104</v>
+        <v>137.3025557327313</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23267,16 +23267,16 @@
         <v>177.2673421742465</v>
       </c>
       <c r="F11" t="n">
-        <v>86.27651337856705</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9047710614198</v>
+        <v>101.9047710614196</v>
       </c>
       <c r="H11" t="n">
-        <v>152.7005992377401</v>
+        <v>29.98943286368311</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.124127090609436</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.51113934098717</v>
       </c>
       <c r="V11" t="n">
         <v>126.6682137217624</v>
       </c>
       <c r="W11" t="n">
-        <v>20.97372756432046</v>
+        <v>143.6848939383773</v>
       </c>
       <c r="X11" t="n">
-        <v>165.5711444073165</v>
+        <v>42.85997803325952</v>
       </c>
       <c r="Y11" t="n">
         <v>188.0739975310603</v>
@@ -23504,13 +23504,13 @@
         <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>141.7876527195543</v>
+        <v>180.3530780652509</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9047710614198</v>
+        <v>101.9047710614196</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368329</v>
+        <v>29.98943286368311</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.20762267428244</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.93811835407753</v>
       </c>
       <c r="V14" t="n">
-        <v>126.6682137217624</v>
+        <v>3.957047347705412</v>
       </c>
       <c r="W14" t="n">
         <v>143.6848939383773</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926726.3506030091</v>
+        <v>926726.3506030095</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>926726.3506030091</v>
+        <v>926726.3506030092</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852874</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852873</v>
       </c>
       <c r="D2" t="n">
-        <v>551207.4969852872</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="E2" t="n">
-        <v>474993.8056377992</v>
+        <v>474993.8056377991</v>
       </c>
       <c r="F2" t="n">
-        <v>474993.8056377992</v>
+        <v>474993.8056377991</v>
       </c>
       <c r="G2" t="n">
+        <v>552324.0930365848</v>
+      </c>
+      <c r="H2" t="n">
         <v>552324.093036585</v>
-      </c>
-      <c r="H2" t="n">
-        <v>552324.0930365849</v>
       </c>
       <c r="I2" t="n">
         <v>552324.0930365848</v>
       </c>
       <c r="J2" t="n">
+        <v>552324.0930365853</v>
+      </c>
+      <c r="K2" t="n">
         <v>552324.0930365851</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>552324.0930365848</v>
+      </c>
+      <c r="M2" t="n">
         <v>552324.0930365853</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>552324.093036585</v>
+      </c>
+      <c r="O2" t="n">
+        <v>552324.0930365853</v>
+      </c>
+      <c r="P2" t="n">
         <v>552324.0930365851</v>
-      </c>
-      <c r="M2" t="n">
-        <v>552324.093036585</v>
-      </c>
-      <c r="N2" t="n">
-        <v>552324.0930365851</v>
-      </c>
-      <c r="O2" t="n">
-        <v>552324.0930365851</v>
-      </c>
-      <c r="P2" t="n">
-        <v>552324.0930365853</v>
       </c>
     </row>
     <row r="3">
@@ -26390,19 +26390,19 @@
         <v>155064.5154470554</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
         <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812931</v>
+        <v>28312.50137812935</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053817</v>
+        <v>68757.7290905382</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>414704.5356053187</v>
       </c>
       <c r="J4" t="n">
-        <v>413278.3638748867</v>
+        <v>413278.3638748866</v>
       </c>
       <c r="K4" t="n">
         <v>413278.3638748867</v>
@@ -26448,16 +26448,16 @@
         <v>413278.3638748867</v>
       </c>
       <c r="M4" t="n">
-        <v>412733.9956987765</v>
+        <v>412733.9956987764</v>
       </c>
       <c r="N4" t="n">
         <v>412733.9956987764</v>
       </c>
       <c r="O4" t="n">
+        <v>412836.9242581266</v>
+      </c>
+      <c r="P4" t="n">
         <v>412836.9242581265</v>
-      </c>
-      <c r="P4" t="n">
-        <v>412836.9242581266</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538858</v>
+        <v>26051.38465538859</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538858</v>
+        <v>26051.38465538859</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="J5" t="n">
-        <v>47579.79330930411</v>
+        <v>47579.79330930412</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930411</v>
+        <v>47579.79330930413</v>
       </c>
       <c r="L5" t="n">
         <v>47579.79330930411</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="N5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170889</v>
       </c>
       <c r="O5" t="n">
         <v>43895.8092789131</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66191.74902311209</v>
+        <v>66187.28263890678</v>
       </c>
       <c r="C6" t="n">
-        <v>66191.74902311197</v>
+        <v>66187.28263890678</v>
       </c>
       <c r="D6" t="n">
-        <v>66191.74902311186</v>
+        <v>66187.28263890678</v>
       </c>
       <c r="E6" t="n">
-        <v>-170680.030466632</v>
+        <v>-170989.3516162272</v>
       </c>
       <c r="F6" t="n">
-        <v>104740.9642983591</v>
+        <v>104431.6431487639</v>
       </c>
       <c r="G6" t="n">
-        <v>-208.8904327532437</v>
+        <v>-208.8904327534256</v>
       </c>
       <c r="H6" t="n">
-        <v>100938.9278562092</v>
+        <v>100938.9278562093</v>
       </c>
       <c r="I6" t="n">
         <v>100938.927856209</v>
       </c>
       <c r="J6" t="n">
-        <v>-63598.57959466102</v>
+        <v>-63598.57959466091</v>
       </c>
       <c r="K6" t="n">
-        <v>91465.9358523945</v>
+        <v>91465.93585239435</v>
       </c>
       <c r="L6" t="n">
-        <v>-9681.88243656815</v>
+        <v>-9681.882436568441</v>
       </c>
       <c r="M6" t="n">
-        <v>68183.38696797032</v>
+        <v>68183.38696797057</v>
       </c>
       <c r="N6" t="n">
-        <v>96495.88834609979</v>
+        <v>96495.88834609969</v>
       </c>
       <c r="O6" t="n">
         <v>26833.63040900734</v>
       </c>
       <c r="P6" t="n">
-        <v>95591.35949954556</v>
+        <v>95591.35949954551</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>194.2115698873896</v>
       </c>
       <c r="G2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.927622639027</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9276226390268</v>
+        <v>450.9276226390271</v>
       </c>
       <c r="L4" t="n">
         <v>450.9276226390268</v>
       </c>
       <c r="M4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649698</v>
       </c>
       <c r="N4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649698</v>
       </c>
       <c r="O4" t="n">
         <v>352.065029707075</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507947</v>
+        <v>86.4858112050795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266164</v>
+        <v>35.39062672266169</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.7731825539027</v>
+        <v>78.77318255390267</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210502</v>
+        <v>23.84857344210519</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507947</v>
+        <v>86.4858112050795</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>194.2115698873896</v>
       </c>
       <c r="K11" t="n">
-        <v>5.370482769838553</v>
+        <v>20.48775281635619</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>28.67551006485594</v>
+        <v>13.55824001833902</v>
       </c>
       <c r="Q11" t="n">
         <v>194.2115698873896</v>
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>36.46114870252157</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28190,7 +28190,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,13 +28217,13 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>68.77362697529702</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
         <v>194.2115698873896</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873896</v>
+        <v>114.5165276872803</v>
       </c>
       <c r="V12" t="n">
         <v>194.2115698873896</v>
@@ -28232,10 +28232,10 @@
         <v>194.2115698873896</v>
       </c>
       <c r="X12" t="n">
+        <v>161.4981965092304</v>
+      </c>
+      <c r="Y12" t="n">
         <v>194.2115698873896</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>133.7391742123201</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959906883239</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7818614221724</v>
+        <v>176.6657466607133</v>
       </c>
       <c r="I13" t="n">
         <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K13" t="n">
         <v>66.47413857346797</v>
@@ -28278,19 +28278,19 @@
         <v>31.44053041360785</v>
       </c>
       <c r="M13" t="n">
-        <v>35.63636032566989</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N13" t="n">
-        <v>138.4992047233226</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O13" t="n">
-        <v>159.5138199599521</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345274</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.8163712014149</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="R13" t="n">
         <v>194.2115698873896</v>
@@ -28351,7 +28351,7 @@
         <v>194.2115698873896</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838553</v>
+        <v>20.48775281635619</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.67551006485594</v>
+        <v>13.55824001833902</v>
       </c>
       <c r="Q14" t="n">
         <v>194.2115698873896</v>
@@ -28427,7 +28427,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R15" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>68.77362697529702</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T15" t="n">
+        <v>92.23675554665698</v>
+      </c>
+      <c r="U15" t="n">
         <v>194.2115698873896</v>
       </c>
-      <c r="U15" t="n">
-        <v>133.7391742123201</v>
-      </c>
       <c r="V15" t="n">
-        <v>194.2115698873896</v>
+        <v>117.9377545413453</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873896</v>
+        <v>143.9934172029546</v>
       </c>
       <c r="X15" t="n">
         <v>194.2115698873896</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873896</v>
+        <v>181.417759517785</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="D16" t="n">
         <v>194.2115698873896</v>
       </c>
       <c r="E16" t="n">
-        <v>194.2115698873896</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959906883239</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7818614221724</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="I16" t="n">
         <v>164.7090929584652</v>
       </c>
       <c r="J16" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K16" t="n">
-        <v>189.1853049475248</v>
+        <v>156.7484316908993</v>
       </c>
       <c r="L16" t="n">
         <v>31.44053041360785</v>
@@ -28518,16 +28518,16 @@
         <v>24.46691421597133</v>
       </c>
       <c r="N16" t="n">
-        <v>48.1043025211776</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O16" t="n">
         <v>36.80265358589527</v>
       </c>
       <c r="P16" t="n">
-        <v>180.6111333345274</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8163712014149</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="R16" t="n">
         <v>194.2115698873896</v>
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5985821377675</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="J17" t="n">
-        <v>198.5875524941748</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K17" t="n">
         <v>5.370482769838553</v>
@@ -28612,25 +28612,25 @@
         <v>194.2115698873896</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="T17" t="n">
-        <v>268.3154274522908</v>
+        <v>288.1030962659642</v>
       </c>
       <c r="U17" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.80750984388783</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28691,25 +28691,25 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S18" t="n">
-        <v>68.77362697529702</v>
+        <v>89.54180879557575</v>
       </c>
       <c r="T18" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872803</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413453</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>143.9934172029546</v>
       </c>
       <c r="X18" t="n">
-        <v>94.6017480654138</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>100.6731197599688</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I20" t="n">
-        <v>310.9788332155223</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="J20" t="n">
         <v>75.87638612011796</v>
@@ -28846,28 +28846,28 @@
         <v>88.55996792937717</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2115698873896</v>
+        <v>255.0407148614456</v>
       </c>
       <c r="S20" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="U20" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="21">
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.80750984388783</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>64.80698515030912</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>49.11640546574287</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.11227274587154</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7388978542471</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074009</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529685</v>
       </c>
       <c r="T21" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665698</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276940613373</v>
+        <v>135.2847095075592</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I23" t="n">
-        <v>320.6463427485928</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>198.5875524941748</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K23" t="n">
         <v>5.370482769838553</v>
@@ -29083,28 +29083,28 @@
         <v>88.55996792937717</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2115698873896</v>
+        <v>264.591820965145</v>
       </c>
       <c r="S23" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>258.7643213485911</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485928</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="24">
@@ -29117,16 +29117,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>79.43415618209676</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>36.46114870252174</v>
+        <v>36.46114870252163</v>
       </c>
       <c r="E24" t="n">
-        <v>49.11640546574287</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.11227274587154</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388978542471</v>
@@ -29171,7 +29171,7 @@
         <v>214.947921920714</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872804</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>109.2289190972013</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599687</v>
       </c>
     </row>
     <row r="25">
@@ -29405,13 +29405,13 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W27" t="n">
         <v>212.9205840662826</v>
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>205.8193224054762</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29445,10 +29445,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.9205840662826</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H28" t="n">
-        <v>169.5982853444228</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I28" t="n">
         <v>164.7090929584652</v>
@@ -29463,10 +29463,10 @@
         <v>31.44053041360785</v>
       </c>
       <c r="M28" t="n">
+        <v>24.46691421597133</v>
+      </c>
+      <c r="N28" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="N28" t="n">
-        <v>15.7880383492658</v>
       </c>
       <c r="O28" t="n">
         <v>36.80265358589527</v>
@@ -29539,7 +29539,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="L29" t="n">
-        <v>212.9205840662816</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M29" t="n">
         <v>212.9205840662826</v>
@@ -29603,10 +29603,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.1669324054735</v>
@@ -29645,19 +29645,19 @@
         <v>212.9205840662826</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>130.1249615858822</v>
       </c>
       <c r="V30" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="W30" t="n">
-        <v>153.1834487932857</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29679,19 +29679,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>181.3332914927285</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>212.9205840662826</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H31" t="n">
-        <v>212.9205840662826</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I31" t="n">
         <v>164.7090929584652</v>
       </c>
       <c r="J31" t="n">
-        <v>212.9205840662826</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
         <v>66.47413857346797</v>
@@ -29703,7 +29703,7 @@
         <v>24.46691421597133</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7880383492658</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O31" t="n">
         <v>36.80265358589527</v>
@@ -29712,10 +29712,10 @@
         <v>57.89996696047065</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.8163712014149</v>
+        <v>166.1785126349186</v>
       </c>
       <c r="R31" t="n">
-        <v>212.9205840662826</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S31" t="n">
         <v>212.9205840662826</v>
@@ -29837,16 +29837,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>51.93601990319845</v>
@@ -29879,22 +29879,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>4.444550939038692</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>212.9205840662826</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662826</v>
+        <v>183.1947490450014</v>
       </c>
     </row>
     <row r="34">
@@ -29904,19 +29904,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.9205840662826</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E34" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="F34" t="n">
-        <v>182.769250248727</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.6959906883239</v>
@@ -29943,13 +29943,13 @@
         <v>15.7880383492658</v>
       </c>
       <c r="O34" t="n">
-        <v>36.80265358589527</v>
+        <v>134.3149640667862</v>
       </c>
       <c r="P34" t="n">
         <v>57.89996696047065</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.9205840662826</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R34" t="n">
         <v>203.2148443806685</v>
@@ -30010,10 +30010,10 @@
         <v>248.3112107889443</v>
       </c>
       <c r="K35" t="n">
+        <v>134.2006577043125</v>
+      </c>
+      <c r="L35" t="n">
         <v>248.3112107889443</v>
-      </c>
-      <c r="L35" t="n">
-        <v>134.2006577043134</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,16 +30071,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>30.53891197325565</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I36" t="n">
         <v>107.1669324054735</v>
@@ -30110,10 +30110,10 @@
         <v>6.141010788491226</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>77.04696400845015</v>
       </c>
       <c r="T36" t="n">
         <v>214.947921920714</v>
@@ -30165,7 +30165,7 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J37" t="n">
-        <v>119.9013618977274</v>
+        <v>158.8215055614144</v>
       </c>
       <c r="K37" t="n">
         <v>66.47413857346797</v>
@@ -30189,19 +30189,19 @@
         <v>126.8163712014149</v>
       </c>
       <c r="R37" t="n">
-        <v>246.5025221041716</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="S37" t="n">
-        <v>248.3112107889443</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T37" t="n">
-        <v>248.3112107889443</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U37" t="n">
         <v>248.3112107889443</v>
       </c>
       <c r="V37" t="n">
-        <v>248.3112107889443</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>248.3112107889443</v>
@@ -30244,22 +30244,22 @@
         <v>248.3112107889443</v>
       </c>
       <c r="J38" t="n">
-        <v>137.8468911961293</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="K38" t="n">
+        <v>5.370482769838553</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>248.3112107889443</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>244.6649772971284</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>128.8301749344739</v>
       </c>
       <c r="P38" t="n">
         <v>248.3112107889443</v>
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>130.1996257880191</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388978542471</v>
@@ -30347,10 +30347,10 @@
         <v>6.141010788491226</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>45.18547332701641</v>
       </c>
       <c r="T39" t="n">
         <v>214.947921920714</v>
@@ -30359,13 +30359,13 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30408,7 +30408,7 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
-        <v>87.68475079473293</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M40" t="n">
         <v>24.46691421597133</v>
@@ -30423,7 +30423,7 @@
         <v>57.89996696047065</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8163712014149</v>
+        <v>210.8328812733778</v>
       </c>
       <c r="R40" t="n">
         <v>203.2148443806685</v>
@@ -30432,13 +30432,13 @@
         <v>235.3546681313223</v>
       </c>
       <c r="T40" t="n">
-        <v>248.3112107889443</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
         <v>248.3112107889443</v>
       </c>
       <c r="V40" t="n">
-        <v>248.3112107889443</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>248.3112107889443</v>
@@ -30487,10 +30487,10 @@
         <v>240.5985821377675</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="M41" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,19 +30499,19 @@
         <v>240.5985821377675</v>
       </c>
       <c r="P41" t="n">
-        <v>201.7724340278371</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="Q41" t="n">
         <v>88.55996792937717</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5985821377675</v>
+        <v>233.2764544497916</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5985821377675</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5985821377675</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U41" t="n">
         <v>240.5985821377675</v>
@@ -30539,16 +30539,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7388978542471</v>
@@ -30557,7 +30557,7 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>51.93601990319845</v>
@@ -30587,10 +30587,10 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>23.3345521201129</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276940613373</v>
@@ -30599,13 +30599,13 @@
         <v>240.5985821377675</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>169.8620860015023</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30621,10 +30621,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>150.617185011901</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30633,7 +30633,7 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H43" t="n">
-        <v>232.7550993518061</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I43" t="n">
         <v>164.7090929584652</v>
@@ -30663,7 +30663,7 @@
         <v>126.8163712014149</v>
       </c>
       <c r="R43" t="n">
-        <v>240.5985821377675</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S43" t="n">
         <v>235.3546681313223</v>
@@ -30724,19 +30724,19 @@
         <v>240.5985821377675</v>
       </c>
       <c r="L44" t="n">
-        <v>49.73381981944681</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
-        <v>240.5985821377675</v>
+        <v>67.91320939554208</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5985821377675</v>
@@ -30748,7 +30748,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5985821377675</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U44" t="n">
         <v>240.5985821377675</v>
@@ -30776,13 +30776,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30791,7 +30791,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I45" t="n">
         <v>107.1669324054735</v>
@@ -30836,13 +30836,13 @@
         <v>240.5985821377675</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5985821377675</v>
+        <v>127.1825994157337</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>154.2972368495043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="G46" t="n">
         <v>168.6959906883239</v>
@@ -30876,7 +30876,7 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J46" t="n">
-        <v>224.2583375844602</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K46" t="n">
         <v>66.47413857346797</v>
@@ -30903,7 +30903,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3546681313223</v>
+        <v>238.0399438987343</v>
       </c>
       <c r="T46" t="n">
         <v>223.7411167026008</v>
@@ -35410,7 +35410,7 @@
         <v>118.3351837672717</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15.11727004651764</v>
       </c>
       <c r="L11" t="n">
         <v>48.87588813253707</v>
@@ -35425,7 +35425,7 @@
         <v>36.36333798423753</v>
       </c>
       <c r="P11" t="n">
-        <v>15.11727004651692</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>105.6516019580125</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7571625941459</v>
+        <v>32.19361387586677</v>
       </c>
       <c r="M12" t="n">
-        <v>35.14761765577747</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P12" t="n">
         <v>85.55952557398589</v>
@@ -35541,31 +35541,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.59464922242154</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.75438891541728</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.02891963667892</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.53542867516464</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.28468766894298</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.51557919906575</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>10.88388523854092</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.31020798966222</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.16944610969856</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.39519868597471</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>118.3351837672717</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15.11727004651764</v>
       </c>
       <c r="L14" t="n">
         <v>48.87588813253707</v>
@@ -35662,7 +35662,7 @@
         <v>36.36333798423753</v>
       </c>
       <c r="P14" t="n">
-        <v>15.11727004651692</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>105.6516019580125</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>35.14761765577748</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7571625941459</v>
+        <v>32.19361387586677</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.711166374057</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P15" t="n">
         <v>85.55952557398589</v>
@@ -35778,34 +35778,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.59464922242154</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>27.75438891541728</v>
       </c>
       <c r="D16" t="n">
         <v>49.02891963667892</v>
       </c>
       <c r="E16" t="n">
-        <v>52.53542867516464</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.51557919906575</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.42970846521727</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.31020798966222</v>
       </c>
       <c r="K16" t="n">
-        <v>122.7111663740568</v>
+        <v>90.27429311743128</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>32.3162641719118</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.39519868597471</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.04776061082519</v>
       </c>
       <c r="J17" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.37239145668453</v>
       </c>
       <c r="T17" t="n">
-        <v>45.89623489061875</v>
+        <v>65.68390370429205</v>
       </c>
       <c r="U17" t="n">
-        <v>70.4966545071256</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L18" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M18" t="n">
-        <v>35.14761765577747</v>
+        <v>118.5904960282516</v>
       </c>
       <c r="N18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P18" t="n">
         <v>85.55952557398589</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>70.38025107775481</v>
+        <v>80.04776061082519</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>60.82914497405599</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.22715018692068</v>
+        <v>98.22715018692062</v>
       </c>
       <c r="U20" t="n">
-        <v>70.4966545071256</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>122.7111663740568</v>
+        <v>115.6364922483405</v>
       </c>
       <c r="N21" t="n">
-        <v>35.14761765577747</v>
+        <v>122.711166374057</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740568</v>
+        <v>122.711166374057</v>
       </c>
       <c r="P21" t="n">
         <v>85.55952557398589</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.04776061082525</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>70.38025107775535</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>36.34512878691898</v>
+        <v>98.22715018692062</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.49665450712554</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>119.7571625941459</v>
       </c>
       <c r="M24" t="n">
-        <v>35.14761765577747</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740568</v>
+        <v>35.1476176557777</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P24" t="n">
         <v>85.55952557398589</v>
@@ -36598,7 +36598,7 @@
         <v>207.550101296444</v>
       </c>
       <c r="L26" t="n">
-        <v>261.7964721988197</v>
+        <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
         <v>296.4720630341242</v>
@@ -36616,7 +36616,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889297</v>
+        <v>18.70901417889294</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>39.36214143350384</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.22459337795873</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.816423922250431</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.4536698503113</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>197.1325457170168</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5501012964441</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988187</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M29" t="n">
         <v>296.4720630341242</v>
@@ -36844,16 +36844,16 @@
         <v>290.9124617818882</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505202</v>
+        <v>249.2839220505201</v>
       </c>
       <c r="P29" t="n">
         <v>199.3623440479436</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.709014178893</v>
+        <v>18.70901417889297</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,19 +36975,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>42.40640927428186</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.22459337795875</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.13872264411027</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.01922216855522</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>197.1325457170168</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>39.36214143350367</v>
       </c>
       <c r="R31" t="n">
-        <v>9.705739685614168</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5501012964441</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L32" t="n">
         <v>261.7964721988197</v>
@@ -37081,16 +37081,16 @@
         <v>290.9124617818882</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505202</v>
+        <v>249.2839220505201</v>
       </c>
       <c r="P32" t="n">
         <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.709014178893</v>
+        <v>18.70901417889297</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.30366340131454</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.73793381557189</v>
       </c>
       <c r="E34" t="n">
-        <v>71.24444285405764</v>
+        <v>71.24444285405761</v>
       </c>
       <c r="F34" t="n">
-        <v>43.84236803028037</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>97.51231048089093</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.1042128648677</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176754</v>
+        <v>7.712628651176782</v>
       </c>
       <c r="J35" t="n">
         <v>172.4348246688263</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191057</v>
+        <v>128.8301749344739</v>
       </c>
       <c r="L35" t="n">
-        <v>183.0765458368505</v>
+        <v>297.1870989214814</v>
       </c>
       <c r="M35" t="n">
         <v>83.5514789678416</v>
@@ -37327,13 +37327,13 @@
         <v>159.7512428595671</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155464</v>
+        <v>54.09964090155466</v>
       </c>
       <c r="S35" t="n">
-        <v>21.03725949703608</v>
+        <v>21.03725949703611</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727219</v>
+        <v>25.89201822727222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>38.920143663687</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37485,19 +37485,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.28767772350309</v>
+        <v>45.09636640827583</v>
       </c>
       <c r="S37" t="n">
-        <v>12.95654265762201</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.57009408634343</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3.202195604494364</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176754</v>
+        <v>7.712628651176782</v>
       </c>
       <c r="J38" t="n">
-        <v>61.97050507601134</v>
+        <v>172.4348246688263</v>
       </c>
       <c r="K38" t="n">
-        <v>242.9407280191057</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>48.87588813253707</v>
       </c>
       <c r="M38" t="n">
-        <v>328.21645626497</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N38" t="n">
-        <v>77.9918777156056</v>
+        <v>326.3030885045499</v>
       </c>
       <c r="O38" t="n">
-        <v>36.36333798423753</v>
+        <v>165.1935129187115</v>
       </c>
       <c r="P38" t="n">
         <v>234.7529707706053</v>
@@ -37564,13 +37564,13 @@
         <v>159.7512428595671</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155464</v>
+        <v>54.09964090155466</v>
       </c>
       <c r="S38" t="n">
-        <v>21.03725949703608</v>
+        <v>21.03725949703611</v>
       </c>
       <c r="T38" t="n">
-        <v>25.89201822727219</v>
+        <v>25.89201822727222</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>56.2442203811251</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.01651007196284</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37728,13 +37728,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.57009408634343</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>3.202195604494364</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>48.87588813253707</v>
+        <v>289.4744702703046</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1500611056091</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N41" t="n">
         <v>77.9918777156056</v>
@@ -37795,19 +37795,19 @@
         <v>276.961920122005</v>
       </c>
       <c r="P41" t="n">
-        <v>188.214194009498</v>
+        <v>227.0403421194285</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037786</v>
+        <v>39.06488456240198</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585931</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17938957609542</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37917,10 +37917,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>95.41593188705679</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>8.941043799675993</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>66.97323792963375</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.38373775709903</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176496</v>
+        <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
         <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
-        <v>98.60970795198388</v>
+        <v>48.87588813253707</v>
       </c>
       <c r="M44" t="n">
-        <v>83.5514789678416</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5904598533731</v>
+        <v>77.9918777156056</v>
       </c>
       <c r="O44" t="n">
-        <v>36.36333798423753</v>
+        <v>276.961920122005</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194285</v>
+        <v>54.35496937720307</v>
       </c>
       <c r="Q44" t="n">
         <v>152.0386142083903</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037786</v>
+        <v>46.38701225037784</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32463084585931</v>
+        <v>13.32463084585928</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17938957609542</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.6716999193208</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3569756867328</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.685275767412051</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
